--- a/ExportedData.xlsx
+++ b/ExportedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvraj\OneDrive\Desktop\SYA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{865322EA-4D9E-4B7B-AEF5-8E1333628623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{398A0321-660E-4D6C-9227-C2BF58B292D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{9790E72C-9D8C-465C-AA40-F726D9A09A9A}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{B8371CD0-E159-48E7-8481-4F7E1970C2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
   <si>
     <t>CO_BOOK</t>
   </si>
@@ -174,6 +174,48 @@
     <t>ARJUN SHASHIKANT YADAV</t>
   </si>
   <si>
+    <t>19-12-2023</t>
+  </si>
+  <si>
+    <t>SUPRIYA DEOLE</t>
+  </si>
+  <si>
+    <t>HITENSINGH DEVENDRASINGH RAOLIJ</t>
+  </si>
+  <si>
+    <t>20-12-2023</t>
+  </si>
+  <si>
+    <t>SAMIR HARSHKANT MEHTA</t>
+  </si>
+  <si>
+    <t>21-12-2023</t>
+  </si>
+  <si>
+    <t>JIGNESHBHAI SHAH</t>
+  </si>
+  <si>
+    <t>23-12-2023</t>
+  </si>
+  <si>
+    <t>29-12-2023</t>
+  </si>
+  <si>
+    <t>ROSHANI B SUTHAR</t>
+  </si>
+  <si>
+    <t>30-12-2023</t>
+  </si>
+  <si>
+    <t>ASHISH BHARWAD</t>
+  </si>
+  <si>
+    <t>DAMIYANTIBEN RAMESHBHAI PATEL</t>
+  </si>
+  <si>
+    <t>DIPIKABEN JAYESHBHAI PARMAR</t>
+  </si>
+  <si>
     <t>Silver Invoice</t>
   </si>
   <si>
@@ -264,24 +306,15 @@
     <t>DIVYABEN V WAGHELA</t>
   </si>
   <si>
-    <t>19-12-2023</t>
-  </si>
-  <si>
     <t>PUNAM PRAVINCHANDRA PATEL</t>
   </si>
   <si>
     <t>AJAYBHAI KOTHARIYA</t>
   </si>
   <si>
-    <t>20-12-2023</t>
-  </si>
-  <si>
     <t>RAMESH R PATEL</t>
   </si>
   <si>
-    <t>21-12-2023</t>
-  </si>
-  <si>
     <t>NIKITA DARBAR</t>
   </si>
   <si>
@@ -309,9 +342,6 @@
     <t>ARCHNABEN GOVINDBHAI PAREKH</t>
   </si>
   <si>
-    <t>23-12-2023</t>
-  </si>
-  <si>
     <t>RINAL GHANSHYAMBHAI THAKKAR</t>
   </si>
   <si>
@@ -336,10 +366,10 @@
     <t>26-12-2023</t>
   </si>
   <si>
-    <t>STUDIO 7*12</t>
-  </si>
-  <si>
-    <t>AAKASH ALPESHKUMAR PRAJAPATI</t>
+    <t>SANJAY SHARMA</t>
+  </si>
+  <si>
+    <t>AKASHBHAI RUPARELIYA</t>
   </si>
   <si>
     <t>SHALINI PANDAY</t>
@@ -351,10 +381,31 @@
     <t>DAKSHABEN D SHAH</t>
   </si>
   <si>
+    <t>27-12-2023</t>
+  </si>
+  <si>
+    <t>NITABEN</t>
+  </si>
+  <si>
+    <t>NITABEN M MANDORA</t>
+  </si>
+  <si>
     <t>28-12-2023</t>
   </si>
   <si>
     <t>BHARAT BHARWAD</t>
+  </si>
+  <si>
+    <t>YOGINIBEN THAKKAR</t>
+  </si>
+  <si>
+    <t>PUJA RAMESHCHANDRA MISHRA</t>
+  </si>
+  <si>
+    <t>KALPESHBHAI BHARWAD[VIJUBEN]</t>
+  </si>
+  <si>
+    <t>ANINDITA ABHJIT MUKHERJEE</t>
   </si>
 </sst>
 </file>
@@ -752,8 +803,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10368151-BC00-4EB1-8732-090718061D9B}">
-  <dimension ref="A1:L93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816832F9-2EC9-4E36-BAB8-54C432711574}">
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,12 +813,13 @@
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2042,54 +2094,76 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="C35" s="3">
+        <v>413</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15.15</v>
+      </c>
+      <c r="F35" s="3">
+        <v>99515</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1492.5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1492.5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>102500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>102500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>27</v>
-      </c>
-      <c r="B36" s="4">
-        <v>44938</v>
+        <v>26</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C36" s="3">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E36" s="3">
-        <v>110</v>
+        <v>14.04</v>
       </c>
       <c r="F36" s="3">
-        <v>9709</v>
+        <v>92233</v>
       </c>
       <c r="G36" s="3">
-        <v>145.5</v>
+        <v>1383.5</v>
       </c>
       <c r="H36" s="3">
-        <v>145.5</v>
+        <v>1383.5</v>
       </c>
       <c r="I36" s="3">
-        <v>10000</v>
+        <v>95000</v>
       </c>
       <c r="J36" s="3">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="K36" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -2097,110 +2171,110 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>27</v>
-      </c>
-      <c r="B37" s="4">
-        <v>44969</v>
+        <v>26</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C37" s="3">
-        <v>309</v>
+        <v>415</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E37" s="3">
-        <v>44.5</v>
+        <v>6.34</v>
       </c>
       <c r="F37" s="3">
-        <v>3932</v>
+        <v>38835</v>
       </c>
       <c r="G37" s="3">
-        <v>59</v>
+        <v>582.5</v>
       </c>
       <c r="H37" s="3">
-        <v>59</v>
+        <v>582.5</v>
       </c>
       <c r="I37" s="3">
-        <v>4050</v>
+        <v>40000</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L37" s="3">
-        <v>4050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>27</v>
-      </c>
-      <c r="B38" s="4">
-        <v>44969</v>
+        <v>26</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C38" s="3">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E38" s="3">
-        <v>140</v>
+        <v>10.55</v>
       </c>
       <c r="F38" s="3">
-        <v>12136</v>
+        <v>66019</v>
       </c>
       <c r="G38" s="3">
-        <v>182</v>
+        <v>990.5</v>
       </c>
       <c r="H38" s="3">
-        <v>182</v>
+        <v>990.5</v>
       </c>
       <c r="I38" s="3">
-        <v>12500</v>
+        <v>68000</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>0</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>27</v>
-      </c>
-      <c r="B39" s="4">
-        <v>44997</v>
+        <v>26</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C39" s="3">
-        <v>311</v>
+        <v>417</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E39" s="3">
-        <v>37.5</v>
+        <v>5.26</v>
       </c>
       <c r="F39" s="3">
-        <v>3398</v>
+        <v>33010</v>
       </c>
       <c r="G39" s="3">
-        <v>51</v>
+        <v>495</v>
       </c>
       <c r="H39" s="3">
-        <v>51</v>
+        <v>495</v>
       </c>
       <c r="I39" s="3">
-        <v>3500</v>
+        <v>34000</v>
       </c>
       <c r="J39" s="3">
-        <v>3500</v>
+        <v>34000</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -2211,37 +2285,37 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>27</v>
-      </c>
-      <c r="B40" s="4">
-        <v>44997</v>
+        <v>26</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C40" s="3">
-        <v>312</v>
+        <v>418</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E40" s="3">
-        <v>56</v>
+        <v>1.08</v>
       </c>
       <c r="F40" s="3">
-        <v>4854</v>
+        <v>5534</v>
       </c>
       <c r="G40" s="3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H40" s="3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I40" s="3">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
       </c>
       <c r="K40" s="3">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -2249,37 +2323,37 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>27</v>
-      </c>
-      <c r="B41" s="4">
-        <v>45028</v>
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C41" s="3">
-        <v>313</v>
+        <v>419</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E41" s="3">
-        <v>53.7</v>
+        <v>1.68</v>
       </c>
       <c r="F41" s="3">
-        <v>4660</v>
+        <v>8350</v>
       </c>
       <c r="G41" s="3">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="H41" s="3">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="I41" s="3">
-        <v>4800</v>
+        <v>8600</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>4800</v>
+        <v>8600</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2287,154 +2361,132 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="4">
-        <v>45028</v>
+        <v>26</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C42" s="3">
-        <v>314</v>
+        <v>420</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E42" s="3">
-        <v>51.5</v>
+        <v>2.09</v>
       </c>
       <c r="F42" s="3">
-        <v>4466</v>
+        <v>13107</v>
       </c>
       <c r="G42" s="3">
-        <v>67</v>
+        <v>196.5</v>
       </c>
       <c r="H42" s="3">
-        <v>67</v>
+        <v>196.5</v>
       </c>
       <c r="I42" s="3">
-        <v>4600</v>
+        <v>13500</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="L42" s="3">
-        <v>4600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>27</v>
-      </c>
-      <c r="B43" s="4">
-        <v>45058</v>
+        <v>26</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C43" s="3">
-        <v>315</v>
+        <v>421</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E43" s="3">
-        <v>72.599999999999994</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F43" s="3">
-        <v>6311</v>
+        <v>13592</v>
       </c>
       <c r="G43" s="3">
-        <v>94.5</v>
+        <v>204</v>
       </c>
       <c r="H43" s="3">
-        <v>94.5</v>
+        <v>204</v>
       </c>
       <c r="I43" s="3">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="K43" s="3">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>27</v>
-      </c>
-      <c r="B44" s="4">
-        <v>45089</v>
-      </c>
-      <c r="C44" s="3">
-        <v>316</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="3">
-        <v>51.5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4466</v>
-      </c>
-      <c r="G44" s="3">
-        <v>67</v>
-      </c>
-      <c r="H44" s="3">
-        <v>67</v>
-      </c>
-      <c r="I44" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
+      <c r="A44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>27</v>
       </c>
       <c r="B45" s="4">
-        <v>45089</v>
+        <v>44938</v>
       </c>
       <c r="C45" s="3">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E45" s="3">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="F45" s="3">
-        <v>1845</v>
+        <v>9709</v>
       </c>
       <c r="G45" s="3">
-        <v>27.5</v>
+        <v>145.5</v>
       </c>
       <c r="H45" s="3">
-        <v>27.5</v>
+        <v>145.5</v>
       </c>
       <c r="I45" s="3">
-        <v>1900</v>
+        <v>10000</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L45" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2442,37 +2494,37 @@
         <v>27</v>
       </c>
       <c r="B46" s="4">
-        <v>45150</v>
+        <v>44969</v>
       </c>
       <c r="C46" s="3">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3">
+        <v>44.5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3932</v>
+      </c>
+      <c r="G46" s="3">
         <v>59</v>
       </c>
-      <c r="E46" s="3">
-        <v>14.1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1262</v>
-      </c>
-      <c r="G46" s="3">
-        <v>19</v>
-      </c>
       <c r="H46" s="3">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="I46" s="3">
-        <v>1300</v>
+        <v>4050</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2480,34 +2532,34 @@
         <v>27</v>
       </c>
       <c r="B47" s="4">
-        <v>45150</v>
+        <v>44969</v>
       </c>
       <c r="C47" s="3">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E47" s="3">
-        <v>44.8</v>
+        <v>140</v>
       </c>
       <c r="F47" s="3">
-        <v>3884</v>
+        <v>12136</v>
       </c>
       <c r="G47" s="3">
-        <v>58.5</v>
+        <v>182</v>
       </c>
       <c r="H47" s="3">
-        <v>58.5</v>
+        <v>182</v>
       </c>
       <c r="I47" s="3">
-        <v>4001</v>
+        <v>12500</v>
       </c>
       <c r="J47" s="3">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2518,34 +2570,34 @@
         <v>27</v>
       </c>
       <c r="B48" s="4">
-        <v>45181</v>
+        <v>44997</v>
       </c>
       <c r="C48" s="3">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E48" s="3">
-        <v>11.5</v>
+        <v>37.5</v>
       </c>
       <c r="F48" s="3">
-        <v>971</v>
+        <v>3398</v>
       </c>
       <c r="G48" s="3">
-        <v>14.5</v>
+        <v>51</v>
       </c>
       <c r="H48" s="3">
-        <v>14.5</v>
+        <v>51</v>
       </c>
       <c r="I48" s="3">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="K48" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2556,34 +2608,34 @@
         <v>27</v>
       </c>
       <c r="B49" s="4">
-        <v>45211</v>
+        <v>44997</v>
       </c>
       <c r="C49" s="3">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E49" s="3">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="F49" s="3">
-        <v>9709</v>
+        <v>4854</v>
       </c>
       <c r="G49" s="3">
-        <v>145.5</v>
+        <v>73</v>
       </c>
       <c r="H49" s="3">
-        <v>145.5</v>
+        <v>73</v>
       </c>
       <c r="I49" s="3">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2594,34 +2646,34 @@
         <v>27</v>
       </c>
       <c r="B50" s="4">
-        <v>45242</v>
+        <v>45028</v>
       </c>
       <c r="C50" s="3">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E50" s="3">
-        <v>16.8</v>
+        <v>53.7</v>
       </c>
       <c r="F50" s="3">
-        <v>1456</v>
+        <v>4660</v>
       </c>
       <c r="G50" s="3">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="H50" s="3">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I50" s="3">
-        <v>1500</v>
+        <v>4800</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
       </c>
       <c r="K50" s="3">
-        <v>1500</v>
+        <v>4800</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
@@ -2632,37 +2684,37 @@
         <v>27</v>
       </c>
       <c r="B51" s="4">
-        <v>45242</v>
+        <v>45028</v>
       </c>
       <c r="C51" s="3">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E51" s="3">
-        <v>1.68</v>
+        <v>51.5</v>
       </c>
       <c r="F51" s="3">
-        <v>10388</v>
+        <v>4466</v>
       </c>
       <c r="G51" s="3">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="H51" s="3">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="I51" s="3">
-        <v>10700</v>
+        <v>4600</v>
       </c>
       <c r="J51" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K51" s="3">
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="L51" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2670,37 +2722,37 @@
         <v>27</v>
       </c>
       <c r="B52" s="4">
-        <v>45242</v>
+        <v>45058</v>
       </c>
       <c r="C52" s="3">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E52" s="3">
-        <v>52</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="F52" s="3">
-        <v>4660</v>
+        <v>6311</v>
       </c>
       <c r="G52" s="3">
-        <v>70</v>
+        <v>94.5</v>
       </c>
       <c r="H52" s="3">
-        <v>70</v>
+        <v>94.5</v>
       </c>
       <c r="I52" s="3">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="L52" s="3">
-        <v>4800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2708,34 +2760,34 @@
         <v>27</v>
       </c>
       <c r="B53" s="4">
-        <v>45272</v>
+        <v>45089</v>
       </c>
       <c r="C53" s="3">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E53" s="3">
-        <v>23.8</v>
+        <v>51.5</v>
       </c>
       <c r="F53" s="3">
-        <v>2136</v>
+        <v>4466</v>
       </c>
       <c r="G53" s="3">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="H53" s="3">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I53" s="3">
-        <v>2200</v>
+        <v>4600</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
       </c>
       <c r="K53" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="L53" s="3">
         <v>0</v>
@@ -2746,72 +2798,72 @@
         <v>27</v>
       </c>
       <c r="B54" s="4">
-        <v>45272</v>
+        <v>45089</v>
       </c>
       <c r="C54" s="3">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E54" s="3">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F54" s="3">
-        <v>4951</v>
+        <v>1845</v>
       </c>
       <c r="G54" s="3">
-        <v>74.5</v>
+        <v>27.5</v>
       </c>
       <c r="H54" s="3">
-        <v>74.5</v>
+        <v>27.5</v>
       </c>
       <c r="I54" s="3">
-        <v>5100</v>
+        <v>1900</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>27</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>37</v>
+      <c r="B55" s="4">
+        <v>45150</v>
       </c>
       <c r="C55" s="3">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E55" s="3">
-        <v>33.5</v>
+        <v>14.1</v>
       </c>
       <c r="F55" s="3">
-        <v>2913</v>
+        <v>1262</v>
       </c>
       <c r="G55" s="3">
-        <v>43.5</v>
+        <v>19</v>
       </c>
       <c r="H55" s="3">
-        <v>43.5</v>
+        <v>19</v>
       </c>
       <c r="I55" s="3">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L55" s="3">
         <v>0</v>
@@ -2821,35 +2873,35 @@
       <c r="A56" s="3">
         <v>27</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>37</v>
+      <c r="B56" s="4">
+        <v>45150</v>
       </c>
       <c r="C56" s="3">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E56" s="3">
-        <v>22.4</v>
+        <v>44.8</v>
       </c>
       <c r="F56" s="3">
-        <v>1942</v>
+        <v>3884</v>
       </c>
       <c r="G56" s="3">
-        <v>29</v>
+        <v>58.5</v>
       </c>
       <c r="H56" s="3">
-        <v>29</v>
+        <v>58.5</v>
       </c>
       <c r="I56" s="3">
-        <v>2000</v>
+        <v>4001</v>
       </c>
       <c r="J56" s="3">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="K56" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L56" s="3">
         <v>0</v>
@@ -2859,35 +2911,35 @@
       <c r="A57" s="3">
         <v>27</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>68</v>
+      <c r="B57" s="4">
+        <v>45181</v>
       </c>
       <c r="C57" s="3">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E57" s="3">
-        <v>51.9</v>
+        <v>11.5</v>
       </c>
       <c r="F57" s="3">
-        <v>4660</v>
+        <v>971</v>
       </c>
       <c r="G57" s="3">
-        <v>70</v>
+        <v>14.5</v>
       </c>
       <c r="H57" s="3">
-        <v>70</v>
+        <v>14.5</v>
       </c>
       <c r="I57" s="3">
-        <v>4800</v>
+        <v>1000</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>4800</v>
+        <v>1000</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2897,35 +2949,35 @@
       <c r="A58" s="3">
         <v>27</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>68</v>
+      <c r="B58" s="4">
+        <v>45211</v>
       </c>
       <c r="C58" s="3">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E58" s="3">
-        <v>89.5</v>
+        <v>112</v>
       </c>
       <c r="F58" s="3">
-        <v>7767</v>
+        <v>9709</v>
       </c>
       <c r="G58" s="3">
-        <v>116.5</v>
+        <v>145.5</v>
       </c>
       <c r="H58" s="3">
-        <v>116.5</v>
+        <v>145.5</v>
       </c>
       <c r="I58" s="3">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="J58" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2935,35 +2987,35 @@
       <c r="A59" s="3">
         <v>27</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>68</v>
+      <c r="B59" s="4">
+        <v>45242</v>
       </c>
       <c r="C59" s="3">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E59" s="3">
-        <v>54</v>
+        <v>16.8</v>
       </c>
       <c r="F59" s="3">
-        <v>4854</v>
+        <v>1456</v>
       </c>
       <c r="G59" s="3">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H59" s="3">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I59" s="3">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2973,35 +3025,35 @@
       <c r="A60" s="3">
         <v>27</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>68</v>
+      <c r="B60" s="4">
+        <v>45242</v>
       </c>
       <c r="C60" s="3">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E60" s="3">
-        <v>75.599999999999994</v>
+        <v>1.68</v>
       </c>
       <c r="F60" s="3">
-        <v>6796</v>
+        <v>10388</v>
       </c>
       <c r="G60" s="3">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="H60" s="3">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="I60" s="3">
-        <v>7000</v>
+        <v>10700</v>
       </c>
       <c r="J60" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K60" s="3">
-        <v>5000</v>
+        <v>7700</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -3011,73 +3063,73 @@
       <c r="A61" s="3">
         <v>27</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>41</v>
+      <c r="B61" s="4">
+        <v>45242</v>
       </c>
       <c r="C61" s="3">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E61" s="3">
-        <v>33.5</v>
+        <v>52</v>
       </c>
       <c r="F61" s="3">
-        <v>2913</v>
+        <v>4660</v>
       </c>
       <c r="G61" s="3">
-        <v>43.5</v>
+        <v>70</v>
       </c>
       <c r="H61" s="3">
-        <v>43.5</v>
+        <v>70</v>
       </c>
       <c r="I61" s="3">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>27</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>41</v>
+      <c r="B62" s="4">
+        <v>45272</v>
       </c>
       <c r="C62" s="3">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E62" s="3">
-        <v>112</v>
+        <v>23.8</v>
       </c>
       <c r="F62" s="3">
-        <v>9709</v>
+        <v>2136</v>
       </c>
       <c r="G62" s="3">
-        <v>145.5</v>
+        <v>32</v>
       </c>
       <c r="H62" s="3">
-        <v>145.5</v>
+        <v>32</v>
       </c>
       <c r="I62" s="3">
-        <v>10000</v>
+        <v>2200</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3087,35 +3139,35 @@
       <c r="A63" s="3">
         <v>27</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>41</v>
+      <c r="B63" s="4">
+        <v>45272</v>
       </c>
       <c r="C63" s="3">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E63" s="3">
-        <v>33.5</v>
+        <v>57</v>
       </c>
       <c r="F63" s="3">
-        <v>2913</v>
+        <v>4951</v>
       </c>
       <c r="G63" s="3">
-        <v>43.5</v>
+        <v>74.5</v>
       </c>
       <c r="H63" s="3">
-        <v>43.5</v>
+        <v>74.5</v>
       </c>
       <c r="I63" s="3">
-        <v>3000</v>
+        <v>5100</v>
       </c>
       <c r="J63" s="3">
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <v>3000</v>
+        <v>5100</v>
       </c>
       <c r="L63" s="3">
         <v>0</v>
@@ -3126,34 +3178,34 @@
         <v>27</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C64" s="3">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E64" s="3">
-        <v>46</v>
+        <v>33.5</v>
       </c>
       <c r="F64" s="3">
-        <v>3981</v>
+        <v>2913</v>
       </c>
       <c r="G64" s="3">
-        <v>59.5</v>
+        <v>43.5</v>
       </c>
       <c r="H64" s="3">
-        <v>59.5</v>
+        <v>43.5</v>
       </c>
       <c r="I64" s="3">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="J64" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="K64" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L64" s="3">
         <v>0</v>
@@ -3164,34 +3216,34 @@
         <v>27</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C65" s="3">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="E65" s="3">
-        <v>33.5</v>
+        <v>22.4</v>
       </c>
       <c r="F65" s="3">
-        <v>2913</v>
+        <v>1942</v>
       </c>
       <c r="G65" s="3">
-        <v>43.5</v>
+        <v>29</v>
       </c>
       <c r="H65" s="3">
-        <v>43.5</v>
+        <v>29</v>
       </c>
       <c r="I65" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J65" s="3">
         <v>0</v>
       </c>
       <c r="K65" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L65" s="3">
         <v>0</v>
@@ -3202,34 +3254,34 @@
         <v>27</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C66" s="3">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E66" s="3">
-        <v>14.5</v>
+        <v>51.9</v>
       </c>
       <c r="F66" s="3">
-        <v>1262</v>
+        <v>4660</v>
       </c>
       <c r="G66" s="3">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="H66" s="3">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I66" s="3">
-        <v>1300</v>
+        <v>4800</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>1300</v>
+        <v>4800</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -3240,34 +3292,34 @@
         <v>27</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C67" s="3">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E67" s="3">
-        <v>26.3</v>
+        <v>89.5</v>
       </c>
       <c r="F67" s="3">
-        <v>2282</v>
+        <v>7767</v>
       </c>
       <c r="G67" s="3">
-        <v>34</v>
+        <v>116.5</v>
       </c>
       <c r="H67" s="3">
-        <v>34</v>
+        <v>116.5</v>
       </c>
       <c r="I67" s="3">
-        <v>2350</v>
+        <v>8000</v>
       </c>
       <c r="J67" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="K67" s="3">
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="L67" s="3">
         <v>0</v>
@@ -3278,34 +3330,34 @@
         <v>27</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C68" s="3">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="3">
+        <v>54</v>
+      </c>
+      <c r="F68" s="3">
+        <v>4854</v>
+      </c>
+      <c r="G68" s="3">
         <v>73</v>
       </c>
-      <c r="E68" s="3">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="F68" s="3">
-        <v>3495</v>
-      </c>
-      <c r="G68" s="3">
-        <v>52.5</v>
-      </c>
       <c r="H68" s="3">
-        <v>52.5</v>
+        <v>73</v>
       </c>
       <c r="I68" s="3">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
       </c>
       <c r="K68" s="3">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="L68" s="3">
         <v>0</v>
@@ -3316,31 +3368,31 @@
         <v>27</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C69" s="3">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E69" s="3">
-        <v>56</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="F69" s="3">
-        <v>4854</v>
+        <v>6796</v>
       </c>
       <c r="G69" s="3">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H69" s="3">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="I69" s="3">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="J69" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K69" s="3">
         <v>5000</v>
@@ -3354,34 +3406,34 @@
         <v>27</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C70" s="3">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E70" s="3">
-        <v>98.5</v>
+        <v>33.5</v>
       </c>
       <c r="F70" s="3">
-        <v>8544</v>
+        <v>2913</v>
       </c>
       <c r="G70" s="3">
-        <v>128</v>
+        <v>43.5</v>
       </c>
       <c r="H70" s="3">
-        <v>128</v>
+        <v>43.5</v>
       </c>
       <c r="I70" s="3">
-        <v>8800</v>
+        <v>3000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>8800</v>
+        <v>3000</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3392,34 +3444,34 @@
         <v>27</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C71" s="3">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E71" s="3">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F71" s="3">
-        <v>4515</v>
+        <v>9709</v>
       </c>
       <c r="G71" s="3">
-        <v>67.5</v>
+        <v>145.5</v>
       </c>
       <c r="H71" s="3">
-        <v>67.5</v>
+        <v>145.5</v>
       </c>
       <c r="I71" s="3">
-        <v>4650</v>
+        <v>10000</v>
       </c>
       <c r="J71" s="3">
-        <v>4650</v>
+        <v>0</v>
       </c>
       <c r="K71" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L71" s="3">
         <v>0</v>
@@ -3430,34 +3482,34 @@
         <v>27</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C72" s="3">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E72" s="3">
-        <v>22.5</v>
+        <v>33.5</v>
       </c>
       <c r="F72" s="3">
-        <v>1942</v>
+        <v>2913</v>
       </c>
       <c r="G72" s="3">
-        <v>29</v>
+        <v>43.5</v>
       </c>
       <c r="H72" s="3">
-        <v>29</v>
+        <v>43.5</v>
       </c>
       <c r="I72" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
       </c>
       <c r="K72" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -3468,34 +3520,34 @@
         <v>27</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C73" s="3">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E73" s="3">
-        <v>32.5</v>
+        <v>46</v>
       </c>
       <c r="F73" s="3">
-        <v>2816</v>
+        <v>3981</v>
       </c>
       <c r="G73" s="3">
-        <v>42</v>
+        <v>59.5</v>
       </c>
       <c r="H73" s="3">
-        <v>42</v>
+        <v>59.5</v>
       </c>
       <c r="I73" s="3">
-        <v>2900</v>
+        <v>4100</v>
       </c>
       <c r="J73" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="K73" s="3">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="L73" s="3">
         <v>0</v>
@@ -3506,34 +3558,34 @@
         <v>27</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C74" s="3">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E74" s="3">
-        <v>45</v>
+        <v>33.5</v>
       </c>
       <c r="F74" s="3">
-        <v>3884</v>
+        <v>2913</v>
       </c>
       <c r="G74" s="3">
-        <v>58.5</v>
+        <v>43.5</v>
       </c>
       <c r="H74" s="3">
-        <v>58.5</v>
+        <v>43.5</v>
       </c>
       <c r="I74" s="3">
-        <v>4001</v>
+        <v>3000</v>
       </c>
       <c r="J74" s="3">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="K74" s="3">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="L74" s="3">
         <v>0</v>
@@ -3544,34 +3596,34 @@
         <v>27</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C75" s="3">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E75" s="3">
-        <v>58.9</v>
+        <v>14.5</v>
       </c>
       <c r="F75" s="3">
-        <v>5097</v>
+        <v>1262</v>
       </c>
       <c r="G75" s="3">
-        <v>76.5</v>
+        <v>19</v>
       </c>
       <c r="H75" s="3">
-        <v>76.5</v>
+        <v>19</v>
       </c>
       <c r="I75" s="3">
-        <v>5250</v>
+        <v>1300</v>
       </c>
       <c r="J75" s="3">
         <v>0</v>
       </c>
       <c r="K75" s="3">
-        <v>5250</v>
+        <v>1300</v>
       </c>
       <c r="L75" s="3">
         <v>0</v>
@@ -3582,34 +3634,34 @@
         <v>27</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C76" s="3">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E76" s="3">
-        <v>40.130000000000003</v>
+        <v>26.3</v>
       </c>
       <c r="F76" s="3">
-        <v>3495</v>
+        <v>2282</v>
       </c>
       <c r="G76" s="3">
-        <v>52.5</v>
+        <v>34</v>
       </c>
       <c r="H76" s="3">
-        <v>52.5</v>
+        <v>34</v>
       </c>
       <c r="I76" s="3">
-        <v>3600</v>
+        <v>2350</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>3600</v>
+        <v>2350</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -3620,34 +3672,34 @@
         <v>27</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C77" s="3">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E77" s="3">
-        <v>28</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="F77" s="3">
-        <v>2427</v>
+        <v>3495</v>
       </c>
       <c r="G77" s="3">
-        <v>36.5</v>
+        <v>52.5</v>
       </c>
       <c r="H77" s="3">
-        <v>36.5</v>
+        <v>52.5</v>
       </c>
       <c r="I77" s="3">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="J77" s="3">
         <v>0</v>
       </c>
       <c r="K77" s="3">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="L77" s="3">
         <v>0</v>
@@ -3658,34 +3710,34 @@
         <v>27</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C78" s="3">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E78" s="3">
-        <v>35.32</v>
+        <v>56</v>
       </c>
       <c r="F78" s="3">
-        <v>3058</v>
+        <v>4854</v>
       </c>
       <c r="G78" s="3">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H78" s="3">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I78" s="3">
-        <v>3150</v>
+        <v>5000</v>
       </c>
       <c r="J78" s="3">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="K78" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="L78" s="3">
         <v>0</v>
@@ -3696,34 +3748,34 @@
         <v>27</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C79" s="3">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E79" s="3">
-        <v>17</v>
+        <v>98.5</v>
       </c>
       <c r="F79" s="3">
-        <v>1456</v>
+        <v>8544</v>
       </c>
       <c r="G79" s="3">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="H79" s="3">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I79" s="3">
-        <v>1500</v>
+        <v>8800</v>
       </c>
       <c r="J79" s="3">
         <v>0</v>
       </c>
       <c r="K79" s="3">
-        <v>1500</v>
+        <v>8800</v>
       </c>
       <c r="L79" s="3">
         <v>0</v>
@@ -3734,34 +3786,34 @@
         <v>27</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C80" s="3">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E80" s="3">
-        <v>41.5</v>
+        <v>52</v>
       </c>
       <c r="F80" s="3">
-        <v>3592</v>
+        <v>4515</v>
       </c>
       <c r="G80" s="3">
-        <v>54</v>
+        <v>67.5</v>
       </c>
       <c r="H80" s="3">
-        <v>54</v>
+        <v>67.5</v>
       </c>
       <c r="I80" s="3">
-        <v>3700</v>
+        <v>4650</v>
       </c>
       <c r="J80" s="3">
-        <v>0</v>
+        <v>4650</v>
       </c>
       <c r="K80" s="3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="L80" s="3">
         <v>0</v>
@@ -3772,34 +3824,34 @@
         <v>27</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C81" s="3">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" s="3">
-        <v>76</v>
+        <v>22.5</v>
       </c>
       <c r="F81" s="3">
-        <v>6602</v>
+        <v>1942</v>
       </c>
       <c r="G81" s="3">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H81" s="3">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I81" s="3">
-        <v>6800</v>
+        <v>2000</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>6800</v>
+        <v>2000</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -3810,34 +3862,34 @@
         <v>27</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C82" s="3">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E82" s="3">
-        <v>44</v>
+        <v>32.5</v>
       </c>
       <c r="F82" s="3">
-        <v>3786</v>
+        <v>2816</v>
       </c>
       <c r="G82" s="3">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H82" s="3">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I82" s="3">
-        <v>3900</v>
+        <v>2900</v>
       </c>
       <c r="J82" s="3">
         <v>0</v>
       </c>
       <c r="K82" s="3">
-        <v>3900</v>
+        <v>2900</v>
       </c>
       <c r="L82" s="3">
         <v>0</v>
@@ -3848,34 +3900,34 @@
         <v>27</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C83" s="3">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E83" s="3">
-        <v>6.2</v>
+        <v>45</v>
       </c>
       <c r="F83" s="3">
-        <v>534</v>
+        <v>3884</v>
       </c>
       <c r="G83" s="3">
-        <v>8</v>
+        <v>58.5</v>
       </c>
       <c r="H83" s="3">
-        <v>8</v>
+        <v>58.5</v>
       </c>
       <c r="I83" s="3">
-        <v>550</v>
+        <v>4001</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="K83" s="3">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3886,34 +3938,34 @@
         <v>27</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C84" s="3">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E84" s="3">
-        <v>35.5</v>
+        <v>58.9</v>
       </c>
       <c r="F84" s="3">
-        <v>3058</v>
+        <v>5097</v>
       </c>
       <c r="G84" s="3">
-        <v>46</v>
+        <v>76.5</v>
       </c>
       <c r="H84" s="3">
-        <v>46</v>
+        <v>76.5</v>
       </c>
       <c r="I84" s="3">
-        <v>3150</v>
+        <v>5250</v>
       </c>
       <c r="J84" s="3">
         <v>0</v>
       </c>
       <c r="K84" s="3">
-        <v>3150</v>
+        <v>5250</v>
       </c>
       <c r="L84" s="3">
         <v>0</v>
@@ -3924,34 +3976,34 @@
         <v>27</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C85" s="3">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E85" s="3">
-        <v>28.4</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="F85" s="3">
-        <v>2427</v>
+        <v>3495</v>
       </c>
       <c r="G85" s="3">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="H85" s="3">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="I85" s="3">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="J85" s="3">
         <v>0</v>
       </c>
       <c r="K85" s="3">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="L85" s="3">
         <v>0</v>
@@ -3962,34 +4014,34 @@
         <v>27</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C86" s="3">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="E86" s="3">
-        <v>33.5</v>
+        <v>28</v>
       </c>
       <c r="F86" s="3">
-        <v>2913</v>
+        <v>2427</v>
       </c>
       <c r="G86" s="3">
-        <v>43.5</v>
+        <v>36.5</v>
       </c>
       <c r="H86" s="3">
-        <v>43.5</v>
+        <v>36.5</v>
       </c>
       <c r="I86" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J86" s="3">
         <v>0</v>
       </c>
       <c r="K86" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L86" s="3">
         <v>0</v>
@@ -4000,34 +4052,34 @@
         <v>27</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="3">
+        <v>349</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C87" s="3">
-        <v>359</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="E87" s="3">
-        <v>65.451999999999998</v>
+        <v>35.32</v>
       </c>
       <c r="F87" s="3">
-        <v>5680</v>
+        <v>3058</v>
       </c>
       <c r="G87" s="3">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H87" s="3">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="I87" s="3">
-        <v>5850</v>
+        <v>3150</v>
       </c>
       <c r="J87" s="3">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="K87" s="3">
-        <v>5850</v>
+        <v>0</v>
       </c>
       <c r="L87" s="3">
         <v>0</v>
@@ -4038,34 +4090,34 @@
         <v>27</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C88" s="3">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E88" s="3">
-        <v>36.25</v>
+        <v>17</v>
       </c>
       <c r="F88" s="3">
-        <v>3146</v>
+        <v>1456</v>
       </c>
       <c r="G88" s="3">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H88" s="3">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I88" s="3">
-        <v>3240</v>
+        <v>1500</v>
       </c>
       <c r="J88" s="3">
         <v>0</v>
       </c>
       <c r="K88" s="3">
-        <v>3240</v>
+        <v>1500</v>
       </c>
       <c r="L88" s="3">
         <v>0</v>
@@ -4076,34 +4128,34 @@
         <v>27</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C89" s="3">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E89" s="3">
-        <v>20.45</v>
+        <v>41.5</v>
       </c>
       <c r="F89" s="3">
-        <v>1748</v>
+        <v>3592</v>
       </c>
       <c r="G89" s="3">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H89" s="3">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I89" s="3">
-        <v>1800</v>
+        <v>3700</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>1800</v>
+        <v>3700</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4114,34 +4166,34 @@
         <v>27</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C90" s="3">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90" s="3">
-        <v>16.59</v>
+        <v>76</v>
       </c>
       <c r="F90" s="3">
-        <v>1408</v>
+        <v>6602</v>
       </c>
       <c r="G90" s="3">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="H90" s="3">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I90" s="3">
-        <v>1450</v>
+        <v>6800</v>
       </c>
       <c r="J90" s="3">
         <v>0</v>
       </c>
       <c r="K90" s="3">
-        <v>1450</v>
+        <v>6800</v>
       </c>
       <c r="L90" s="3">
         <v>0</v>
@@ -4152,34 +4204,34 @@
         <v>27</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C91" s="3">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E91" s="3">
-        <v>69.2</v>
+        <v>44</v>
       </c>
       <c r="F91" s="3">
-        <v>6019</v>
+        <v>3786</v>
       </c>
       <c r="G91" s="3">
-        <v>90.5</v>
+        <v>57</v>
       </c>
       <c r="H91" s="3">
-        <v>90.5</v>
+        <v>57</v>
       </c>
       <c r="I91" s="3">
-        <v>6200</v>
+        <v>3900</v>
       </c>
       <c r="J91" s="3">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4190,57 +4242,627 @@
         <v>27</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="3">
+        <v>355</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="3">
+      <c r="E92" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="F92" s="3">
+        <v>534</v>
+      </c>
+      <c r="G92" s="3">
+        <v>8</v>
+      </c>
+      <c r="H92" s="3">
+        <v>8</v>
+      </c>
+      <c r="I92" s="3">
+        <v>550</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <v>550</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>27</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="3">
+        <v>356</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="F93" s="3">
+        <v>3058</v>
+      </c>
+      <c r="G93" s="3">
+        <v>46</v>
+      </c>
+      <c r="H93" s="3">
+        <v>46</v>
+      </c>
+      <c r="I93" s="3">
+        <v>3150</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+      <c r="K93" s="3">
+        <v>3150</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>27</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="3">
+        <v>357</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2427</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>27</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="3">
+        <v>358</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2913</v>
+      </c>
+      <c r="G95" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="H95" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="I95" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+      <c r="K95" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>27</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="3">
+        <v>359</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" s="3">
+        <v>65.451999999999998</v>
+      </c>
+      <c r="F96" s="3">
+        <v>5680</v>
+      </c>
+      <c r="G96" s="3">
+        <v>85</v>
+      </c>
+      <c r="H96" s="3">
+        <v>85</v>
+      </c>
+      <c r="I96" s="3">
+        <v>5850</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>5850</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>27</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="3">
+        <v>360</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" s="3">
+        <v>36.25</v>
+      </c>
+      <c r="F97" s="3">
+        <v>3146</v>
+      </c>
+      <c r="G97" s="3">
+        <v>47</v>
+      </c>
+      <c r="H97" s="3">
+        <v>47</v>
+      </c>
+      <c r="I97" s="3">
+        <v>3240</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <v>3240</v>
+      </c>
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>27</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="3">
+        <v>361</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="3">
+        <v>20.45</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1748</v>
+      </c>
+      <c r="G98" s="3">
+        <v>26</v>
+      </c>
+      <c r="H98" s="3">
+        <v>26</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>27</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="3">
+        <v>362</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E99" s="3">
+        <v>16.59</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1408</v>
+      </c>
+      <c r="G99" s="3">
+        <v>21</v>
+      </c>
+      <c r="H99" s="3">
+        <v>21</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1450</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3">
+        <v>1450</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>27</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="3">
+        <v>363</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E100" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="F100" s="3">
+        <v>6019</v>
+      </c>
+      <c r="G100" s="3">
+        <v>90.5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>90.5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>27</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="3">
+        <v>366</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" s="3">
+        <v>61.5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>5340</v>
+      </c>
+      <c r="G101" s="3">
+        <v>80</v>
+      </c>
+      <c r="H101" s="3">
+        <v>80</v>
+      </c>
+      <c r="I101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>27</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="3">
+        <v>367</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="3">
+        <v>56</v>
+      </c>
+      <c r="F102" s="3">
+        <v>4854</v>
+      </c>
+      <c r="G102" s="3">
+        <v>73</v>
+      </c>
+      <c r="H102" s="3">
+        <v>73</v>
+      </c>
+      <c r="I102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>27</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="3">
         <v>364</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E92" s="3">
+      <c r="D103" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="3">
         <v>55.85</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F103" s="3">
         <v>4854</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G103" s="3">
         <v>73</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H103" s="3">
         <v>73</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I103" s="3">
         <v>5000</v>
       </c>
-      <c r="J92" s="3">
-        <v>0</v>
-      </c>
-      <c r="K92" s="3">
+      <c r="J103" s="3">
+        <v>0</v>
+      </c>
+      <c r="K103" s="3">
         <v>5000</v>
       </c>
-      <c r="L92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
+      <c r="L103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>27</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" s="3">
+        <v>365</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="F104" s="3">
+        <v>6019</v>
+      </c>
+      <c r="G104" s="3">
+        <v>90.5</v>
+      </c>
+      <c r="H104" s="3">
+        <v>90.5</v>
+      </c>
+      <c r="I104" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+      <c r="K104" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>27</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="3">
+        <v>368</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E105" s="3">
+        <v>112</v>
+      </c>
+      <c r="F105" s="3">
+        <v>9709</v>
+      </c>
+      <c r="G105" s="3">
+        <v>145.5</v>
+      </c>
+      <c r="H105" s="3">
+        <v>145.5</v>
+      </c>
+      <c r="I105" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J105" s="3">
+        <v>0</v>
+      </c>
+      <c r="K105" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>27</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" s="3">
+        <v>369</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="F106" s="3">
+        <v>6796</v>
+      </c>
+      <c r="G106" s="3">
+        <v>102</v>
+      </c>
+      <c r="H106" s="3">
+        <v>102</v>
+      </c>
+      <c r="I106" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+      <c r="K106" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>27</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="3">
+        <v>370</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1942</v>
+      </c>
+      <c r="G107" s="3">
+        <v>29</v>
+      </c>
+      <c r="H107" s="3">
+        <v>29</v>
+      </c>
+      <c r="I107" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J107" s="3">
+        <v>0</v>
+      </c>
+      <c r="K107" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A44:L44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
